--- a/Extras/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
+++ b/Extras/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degau\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lafavorite.sharepoint.com/sites/SIO22024-2025/Student Work/Working files/DE-GAUDEMAR-ANCEY ARAGORN/Lien portfolio _ tableau de synthèse (Aragorn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B3D39D-013E-4855-B6FD-AF2CC7513294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{81B3D39D-013E-4855-B6FD-AF2CC7513294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDEE5492-9916-41D7-A6CE-45536E21770B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="2955" windowWidth="14325" windowHeight="7155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -159,55 +159,55 @@
     <t>AP M@banque / GSB</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
     <t>Stage 1ère année</t>
   </si>
   <si>
+    <t>Comparaison d'hébergeurs de sites</t>
+  </si>
+  <si>
+    <t>Création de sites web</t>
+  </si>
+  <si>
+    <t>Référencement du site web</t>
+  </si>
+  <si>
+    <t>Assimilation de la base de données</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
     <t>Stage 2ème année</t>
   </si>
   <si>
+    <t>Changement de cookies avec un lien (PHP, Cookies, Jquerry, JS, Linux, Docker, Git, Scrum)</t>
+  </si>
+  <si>
+    <t>13/01/25 au 14/02/25</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Documentation du pages de l'application interne</t>
+  </si>
+  <si>
+    <t>20/01/25 au 23/01/25</t>
+  </si>
+  <si>
+    <t>Documentation de l'installation de l'environement dev Linux</t>
+  </si>
+  <si>
+    <t>17/02/25 au 21/02/25</t>
+  </si>
+  <si>
     <t>trssssssssssssssssssssss&amp;yhnuyhnè</t>
-  </si>
-  <si>
-    <t>Changement de cookies avec un lien (PHP, Cookies, Jquerry, JS, Linux, Docker, Git, Scrum)</t>
-  </si>
-  <si>
-    <t>Documentation du pages de l'application interne</t>
-  </si>
-  <si>
-    <t>Documentation de l'installation de l'environement dev Linux</t>
-  </si>
-  <si>
-    <t>13/01/25 au 14/02/25</t>
-  </si>
-  <si>
-    <t>20/01/25 au 23/01/25</t>
-  </si>
-  <si>
-    <t>17/02/25 au 21/02/25</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Comparaison d'hébergeurs de sites</t>
-  </si>
-  <si>
-    <t>Création de sites web</t>
-  </si>
-  <si>
-    <t>Référencement du site web</t>
-  </si>
-  <si>
-    <t>Assimilation de la base de données</t>
   </si>
 </sst>
 </file>
@@ -769,15 +769,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -810,54 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -875,6 +875,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1169,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:AQ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1184,56 +1188,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:43" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="39"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1241,22 +1245,22 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="48" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1279,8 +1283,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
@@ -1336,16 +1340,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1383,16 +1387,16 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1433,7 +1437,7 @@
       <c r="A10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="12"/>
       <c r="D10" s="16"/>
       <c r="E10" s="12"/>
@@ -1482,7 +1486,7 @@
       <c r="A11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
         <v>27</v>
@@ -1531,7 +1535,7 @@
       <c r="A12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="16"/>
       <c r="D12" s="12"/>
       <c r="E12" s="16"/>
@@ -1580,7 +1584,7 @@
       <c r="A13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="16"/>
       <c r="D13" s="12"/>
       <c r="E13" s="16"/>
@@ -1629,13 +1633,21 @@
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1809,7 +1821,7 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="48"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="16"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1853,16 +1865,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1901,15 +1913,15 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
+        <v>35</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1948,11 +1960,11 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="48"/>
+        <v>36</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -1997,15 +2009,15 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="48"/>
+        <v>37</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22"/>
@@ -2046,13 +2058,13 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="48"/>
+        <v>38</v>
+      </c>
+      <c r="B23" s="26"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -2095,11 +2107,11 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="48"/>
+        <v>39</v>
+      </c>
+      <c r="B24" s="26"/>
       <c r="C24" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -2144,7 +2156,7 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="B25" s="48"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -2189,7 +2201,7 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
-      <c r="B26" s="48"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -2233,16 +2245,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2281,15 +2293,15 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
+        <v>41</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2328,10 +2340,10 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -2339,7 +2351,7 @@
         <v>44</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>44</v>
@@ -2383,13 +2395,13 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -2436,13 +2448,13 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -2489,7 +2501,7 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="B32" s="48"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -2534,7 +2546,7 @@
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
-      <c r="B33" s="48"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -2579,13 +2591,13 @@
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2689,7 +2701,7 @@
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G128" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2719,20 +2731,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9beb3da5-6aed-47c7-bdb5-6d8c8fc74afe">
+    <TaxCatchAll xmlns="e746c093-1525-408e-86ad-0c488634d20b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5468233-af9c-42fc-bb8c-aa1f9ac553be">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e746c093-1525-408e-86ad-0c488634d20b" xsi:nil="true"/>
+    <ReferenceId xmlns="d5468233-af9c-42fc-bb8c-aa1f9ac553be" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F080E3B28FCE24F98E54752296A8725" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="91c0e8a97f0c956104c2c69acc650c90">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9beb3da5-6aed-47c7-bdb5-6d8c8fc74afe" xmlns:ns3="e746c093-1525-408e-86ad-0c488634d20b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d5c45a0b59940948ed5e7ec4d03dcad" ns2:_="" ns3:_="">
-    <xsd:import namespace="9beb3da5-6aed-47c7-bdb5-6d8c8fc74afe"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010026CFFAA8BAA0864BA96211B9CFD960B8" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7f4bffd4ebff60f9a6700db01bbd4918">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d5468233-af9c-42fc-bb8c-aa1f9ac553be" xmlns:ns3="e746c093-1525-408e-86ad-0c488634d20b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b797f7e3ae742b2075b7eeaf2309cc0d" ns2:_="" ns3:_="">
+    <xsd:import namespace="d5468233-af9c-42fc-bb8c-aa1f9ac553be"/>
     <xsd:import namespace="e746c093-1525-408e-86ad-0c488634d20b"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -2740,6 +2762,7 @@
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
+                <xsd:element ref="ns2:ReferenceId" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
@@ -2757,54 +2780,59 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9beb3da5-6aed-47c7-bdb5-6d8c8fc74afe" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d5468233-af9c-42fc-bb8c-aa1f9ac553be" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="ReferenceId" ma:index="8" nillable="true" ma:displayName="ReferenceId" ma:indexed="true" ma:internalName="ReferenceId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0a4a5397-caa8-4df3-b284-6b3a282f0fb2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0a4a5397-caa8-4df3-b284-6b3a282f0fb2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2813,7 +2841,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e746c093-1525-408e-86ad-0c488634d20b" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2360ca68-68a7-4bbb-addd-1e6f24213dd0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e746c093-1525-408e-86ad-0c488634d20b">
+    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2360ca68-68a7-4bbb-addd-1e6f24213dd0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e746c093-1525-408e-86ad-0c488634d20b">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -2924,34 +2952,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9beb3da5-6aed-47c7-bdb5-6d8c8fc74afe"/>
-    <ds:schemaRef ds:uri="e746c093-1525-408e-86ad-0c488634d20b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91FA572D-7871-4A17-B18C-B288B769761F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e746c093-1525-408e-86ad-0c488634d20b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d5468233-af9c-42fc-bb8c-aa1f9ac553be"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49463A6-23CB-479D-A83A-B342CF2A518E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9beb3da5-6aed-47c7-bdb5-6d8c8fc74afe"/>
+    <ds:schemaRef ds:uri="d5468233-af9c-42fc-bb8c-aa1f9ac553be"/>
     <ds:schemaRef ds:uri="e746c093-1525-408e-86ad-0c488634d20b"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -2961,12 +2994,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>